--- a/NLP/Headline Clasf/News_dataset.xlsx
+++ b/NLP/Headline Clasf/News_dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="259">
   <si>
     <t>FEX</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Turquía debe elegir entre OTAN o compras de armas a Rusia: Pence</t>
   </si>
   <si>
+    <t>Rep. Engel: Readout of Meeting with Turkish Foreign Minister</t>
+  </si>
+  <si>
     <t>EXTRA Turkey tells US to choose if to remain allies with Ankara</t>
   </si>
   <si>
@@ -97,12 +100,21 @@
     <t>SBN</t>
   </si>
   <si>
+    <t>La OTAN no sería "capaz" de defender el espacio aéreo de Turquía</t>
+  </si>
+  <si>
+    <t>++ Turchia: Erdogan, Imamoglu e' un'anatra zoppa ++</t>
+  </si>
+  <si>
     <t>PTI</t>
   </si>
   <si>
     <t>Turkey recounts Istanbul votes after Erdogan's party appeals loss</t>
   </si>
   <si>
+    <t>Turchia: Cavusoglu, concluso acquisto missili russi (2)</t>
+  </si>
+  <si>
     <t>HUR</t>
   </si>
   <si>
@@ -121,6 +133,9 @@
     <t>BN</t>
   </si>
   <si>
+    <t>Sparks Fly as Brazil Economy Czar, Lawmakers Clash on Reform (1)</t>
+  </si>
+  <si>
     <t>Brazil Cenbank Informs Laia That It is no Longer Part of CCR</t>
   </si>
   <si>
@@ -163,6 +178,12 @@
     <t>GO7</t>
   </si>
   <si>
+    <t>Uruguay Republic: JUAN RAÚL ESTUVO EN EL SENADOFerreira afirmó que Bolsonaro viola reglamentos del Mercosur</t>
+  </si>
+  <si>
+    <t>Uruguay Republic: Brasil. Embarazosa situación deja en falso a Bolsonaro ante países árabesCalifican de inoportuno abrir una</t>
+  </si>
+  <si>
     <t>BRL Reverses Gains as Guedes Hearing Turns Acrimonious</t>
   </si>
   <si>
@@ -187,15 +208,27 @@
     <t>DoJ TX Eastern: Mexican National Indicted for Illegally Reentering the United States</t>
   </si>
   <si>
+    <t>Senadores vuelven a rechazar ternas para la CRE; Ejecutivo podrá</t>
+  </si>
+  <si>
     <t>Disney y Fox proponen auditor para la venta de Fox Sports</t>
   </si>
   <si>
+    <t>SEGARPA: Perfila Gobierno de México a sector pecuario como referente global en responsabilidad ambiental e inclusión social</t>
+  </si>
+  <si>
+    <t>Convienen INE y autoridades de Tabasco actualizar padrón electoral</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Code</t>
   </si>
   <si>
+    <t>headline</t>
+  </si>
+  <si>
     <t>WPT</t>
   </si>
   <si>
@@ -214,6 +247,9 @@
     <t>'Don't Fight the White House' Is Market's Mantra: Robert Burgess</t>
   </si>
   <si>
+    <t>Nato: Turchia, continueremo nel sostegno contro terrorismo</t>
+  </si>
+  <si>
     <t>FastFT: Erdogan’s AK Party warns opposition on Istanbul race results</t>
   </si>
   <si>
@@ -247,6 +283,9 @@
     <t>Imamoglu’s battle to lead Istanbul energises Turkey’s opposition</t>
   </si>
   <si>
+    <t>U.S.-Turkey Showdown Escalates as Pence Warns on Missiles (1)</t>
+  </si>
+  <si>
     <t>*TURKEY'S AKP TO OBJECT TO ANKARA ELECTION RESULTS: AKP SEC-GEN</t>
   </si>
   <si>
@@ -346,6 +385,9 @@
     <t>ERO</t>
   </si>
   <si>
+    <t>Brasil.- El Gobierno de Bolsonaro rechaza que hubiera un golpe de Estado en Brasil en una carta enviada a la ONU</t>
+  </si>
+  <si>
     <t>Bolsonaro seeks to revise how Brazil's schools teach on coup</t>
   </si>
   <si>
@@ -418,6 +460,9 @@
     <t>BMV</t>
   </si>
   <si>
+    <t>DESIGNACION DE DFK-GLF, S.C., COMO EL DESPACHO QUE PRESTARA LOS SERVICIOS DE</t>
+  </si>
+  <si>
     <t>SHCP Mexico: Viernes Recreativo para niñas y niños de 6 a 12 años.</t>
   </si>
   <si>
@@ -466,6 +511,9 @@
     <t>1ST LEAD Turkey rejects EU official's criticism of AKP election challenge By Mirjam Schmitt, DPA</t>
   </si>
   <si>
+    <t>Turkey’s Ruling AKP to Seek Total Recount of Istanbul Votes (1)</t>
+  </si>
+  <si>
     <t>Turkey’s Ruling AKP to Seek Total Istanbul Recount (Correct)</t>
   </si>
   <si>
@@ -589,6 +637,12 @@
     <t>Protest And Celebration in Brazil on Lula Prison Anniversary</t>
   </si>
   <si>
+    <t>Presidencia VE: Presidente Nicolás Maduro pide liberación de Lula Da Silva</t>
+  </si>
+  <si>
+    <t>Brazil U.S. Roadshow Tough Sale as Bolsonaro Honeymoon Ends (1)</t>
+  </si>
+  <si>
     <t>TRANSLATION: Estadão: Bolsonaro says he will decide fate of the Minister of Education on Monday</t>
   </si>
   <si>
@@ -637,6 +691,9 @@
     <t>BNDES Acting to Tackle FX Issue in Infrastructure Projects: CEO</t>
   </si>
   <si>
+    <t>TRANSLATION: UOL Brasil: PEC of the tax reform is filed in the Chamber by MDB leader</t>
+  </si>
+  <si>
     <t>*BRAZIL'S BOLSONARO TO VISIT JAPAN IN JUNE: SPOKESPERSON</t>
   </si>
   <si>
@@ -682,6 +739,9 @@
     <t>Mexico to purge nonworking teachers from payroll</t>
   </si>
   <si>
+    <t>SHCP Mexico: Boletín No. 004 La Unidad de Inteligencia Financiera de la SHCP colabora con la Procuraduría General de Justicia</t>
+  </si>
+  <si>
     <t>Crossing the Border newsletter: For Migrants in Mexico, the Wait ‘Could Be a Week, Two Weeks, a Month’</t>
   </si>
   <si>
@@ -691,6 +751,9 @@
     <t>AP FACT CHECK: Trump's Mexico Mirage</t>
   </si>
   <si>
+    <t>SEMARNAT: Semarnat combatirá tala ilegal en Ocuilán, Estado de México</t>
+  </si>
+  <si>
     <t>Massive Blackout Hits Mexico's Yucatan Peninsula</t>
   </si>
   <si>
@@ -706,6 +769,12 @@
     <t>Fed Dallas: Mexico's Output Growth Slows, Outlook Worsens</t>
   </si>
   <si>
+    <t>Indispensable, legislar redes sociales de servidores públicos</t>
+  </si>
+  <si>
+    <t>Economia (MX): Mensaje de la Secretaria de Economía, Graciela Márquez, previo a la Conferencia Magistral del Director General</t>
+  </si>
+  <si>
     <t>Banxico to Offer MXN30b of Bonds in Extraordinary Auction</t>
   </si>
   <si>
@@ -722,504 +791,6 @@
   </si>
   <si>
     <t>The Ministry of Finance and Public Credit reports on a series of meetings with</t>
-  </si>
-  <si>
-    <t>Headline</t>
-  </si>
-  <si>
-    <t>NATO would not be "able" to defend Turkey's airspace</t>
-  </si>
-  <si>
-    <t>Turkey: Cavusoglu, Russian missile purchase concluded</t>
-  </si>
-  <si>
-    <t>Sparks Fly as Brazil Economy Czar, Lawmakers Clash on Reform</t>
-  </si>
-  <si>
-    <t>Ferreira affirmed that Bolsonaro violates Mercosur regulations</t>
-  </si>
-  <si>
-    <t>Uruguay Republic: Brazil. Embarrassing situation leaves Bolsonaro in a false position before Arab countries.</t>
-  </si>
-  <si>
-    <t>Senators again reject short lists for the CRE; Executive may</t>
-  </si>
-  <si>
-    <t>Profile of the Government of Mexico to the livestock sector as a global reference in environmental responsibility and social inclusi</t>
-  </si>
-  <si>
-    <t>INE and authorities of Tabasco agree to update electoral roll</t>
-  </si>
-  <si>
-    <t>U.S.-Turkey Showdown Escalates as Pence Warns on Missiles</t>
-  </si>
-  <si>
-    <t>0-Jan</t>
-  </si>
-  <si>
-    <t>The Government of Bolsonaro rejects that there was a coup d'état in Brazil in a letter sent to the UN</t>
-  </si>
-  <si>
-    <t>DESIGNATION OF DFK-GLF, S.C., AS THE OFFICE THAT PROVIDES THE SERVICES OF</t>
-  </si>
-  <si>
-    <t>Turkey’s Ruling AKP to Seek Total Recount of Istanbul Votes</t>
-  </si>
-  <si>
-    <t>Presidency VE: President Nicolás Maduro asks for the release of Lula Da Silva</t>
-  </si>
-  <si>
-    <t>Brazil U.S. Roadshow Tough Sale as Bolsonaro Honeymoon Ends</t>
-  </si>
-  <si>
-    <t>PEC of the tax reform is filed in the Chamber by MDB leader</t>
-  </si>
-  <si>
-    <t>The Financial Intelligence Unit of the SHCP collaborates with the Attorney General's Office</t>
-  </si>
-  <si>
-    <t>Semarnat will fight illegal logging in Ocuilán, State of Mexico</t>
-  </si>
-  <si>
-    <t>Indispensable, legislate social networks of public servants</t>
-  </si>
-  <si>
-    <t>Message from the Secretary of Economy, Graciela Márquez, prior to the Magisterial Conference of the Director General</t>
-  </si>
-  <si>
-    <t>Turkey High Election Board Rejects Full Recount of Istanbul Vote</t>
-  </si>
-  <si>
-    <t>*ELECTION BOARD RULES TO RECOUNT OF 51 BALLOT BOXES IN ISTANBUL</t>
-  </si>
-  <si>
-    <t>*TURKEY HIGH ELECTION BOARD REJECTS ISTANBUL FULL RECOUNT</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
-    <t>Bid to Extradite Prominent Critic of Turkey's President Reaches High Court</t>
-  </si>
-  <si>
-    <t>Russia, Turkey agree to boost bilateral investment</t>
-  </si>
-  <si>
-    <t>Putin, Erdogan discuss delivery of S-400 missile systems, joint</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>Financials: Credit Guarantees Fuel Turkey Lending, Bank Results</t>
-  </si>
-  <si>
-    <t>Russia Pres: News conference following Russian-Turkish talks</t>
-  </si>
-  <si>
-    <t>Turkey's Erdogan Defends Demand for Full Recount in Istanbul</t>
-  </si>
-  <si>
-    <t>Turkey Central Bank Reopens Repo, Policy Rate to Drop</t>
-  </si>
-  <si>
-    <t>Germany Returning to Trend, Turkey Restarts Repo Auction</t>
-  </si>
-  <si>
-    <t>3RD LEAD Turkey not backing away from Russian arms deal despite US pressure By Peter Spinella and Anindita Ramaswamy, DPA</t>
-  </si>
-  <si>
-    <t>Erdogan Says Russia Defense Deal ‘Done’ as Putin Urges More Ties</t>
-  </si>
-  <si>
-    <t>ANSA / Syria: war on Idlib is switched on, Erdogan Mosca da Putin</t>
-  </si>
-  <si>
-    <t>Syria: Putin, 'the Idlib Turkmen-Turkic Turkmenistan'</t>
-  </si>
-  <si>
-    <t>Bolsonaro says he will consult the Congress in case of military intervention in Venezuela</t>
-  </si>
-  <si>
-    <t>Brazil’s Bolsonaro to Visit Arab Countries to ‘Do Business’</t>
-  </si>
-  <si>
-    <t>Brazil Ecomin Sees Reform Cut, But Gives No Savings Forecast</t>
-  </si>
-  <si>
-    <t>Brazil court rules in favor of lessors to repossess Avianca Brasil planes</t>
-  </si>
-  <si>
-    <t>China Commodities Today: Iron Gains as Brazil’s Exports Plunge</t>
-  </si>
-  <si>
-    <t>Brazil Studies 2 Measures to Help States, Municipalities: Govt</t>
-  </si>
-  <si>
-    <t>Brazil Ecomin Says He Doesn’t Intend to Be Political Coordinator</t>
-  </si>
-  <si>
-    <t>*BRAZIL HOUSE SPEAKER SAYS HE HOPES GOVT CAN BUILD COALITION</t>
-  </si>
-  <si>
-    <t>*BRAZIL ECOMIN EXPECTS FUNDS FROM TOR AGREEMENT THIS YEAR</t>
-  </si>
-  <si>
-    <t>*BRAZIL ECOMIN SEES REFORM CUT, BUT GIVES NO SAVINGS FORECAST</t>
-  </si>
-  <si>
-    <t>*BRAZIL PRESIDENT SAYS HE DIDN'T CHANGE HIS MIND ON ISRAEL EMB.</t>
-  </si>
-  <si>
-    <t>*BRAZIL SPEAKER SAYS WEAKER PRESIDENT MAY BE GOOD FOR REFORM</t>
-  </si>
-  <si>
-    <t>*BRAZIL ECONMIN SAYS LOW POPULARITY WILL NOT MAKE GOVT GIVE UP</t>
-  </si>
-  <si>
-    <t>Hedge-Fund Icon Startled by Bolsonaro ‘Threat’ to Reform Agenda</t>
-  </si>
-  <si>
-    <t>*BRAZIL HOUSE SPEAKER SAYS GOVT WANTED NEW FORM OF NEGOTIATIONS</t>
-  </si>
-  <si>
-    <t>*BRAZIL SPEAKER SAYS HE SUPPORTS REFORM, BUT IS NOT NEGOTIATOR</t>
-  </si>
-  <si>
-    <t>TRANSLATION: Agência Brasil: PGR defends tabulation of freight in opinion to the Supreme</t>
-  </si>
-  <si>
-    <t>Sen. Marco Rubio: Tomorrow: Rubio, Risch, Menendez, Kaine, Udall Meet Brazilian Vice President Hamilton Mourão</t>
-  </si>
-  <si>
-    <t>*BRAZIL'S NEW EDUCATION MIN. TO TAKE OFFICE TUESDAY 2PM</t>
-  </si>
-  <si>
-    <t>*BOLSONARO SAYS HE WILL REVIEW INDIGENOUS LAND DEMARCATIONS</t>
-  </si>
-  <si>
-    <t>Court determines that local congresses can legislate on transparency</t>
-  </si>
-  <si>
-    <t>Mexican president reiterates backing for Venezuelan dialogue</t>
-  </si>
-  <si>
-    <t>Presidency (MX): The murals of the Secretariat of Public Education. Book open to the art and identity of Mexico</t>
-  </si>
-  <si>
-    <t>U.S. Commerce Sec. Ross Is Said to Plan Mexico Visit This Week</t>
-  </si>
-  <si>
-    <t>Ministry of Agriculture will invest 1,800 million pesos in health programs</t>
-  </si>
-  <si>
-    <t>President of the Court celebrates coincidences on advances in rights</t>
-  </si>
-  <si>
-    <t>OLD AGE, AGING AND HUMAN RIGHTS.</t>
-  </si>
-  <si>
-    <t>Mexico and Luxembourg will deepen trade and investments</t>
-  </si>
-  <si>
-    <t>Lilia Villafuerte Zavala (Without Party) refers that Mexico, according to the OECD and ECLAC, maintain</t>
-  </si>
-  <si>
-    <t>PRN</t>
-  </si>
-  <si>
-    <t>Mexican Growers Propose Changes to Agreement Governing Tomato Imports from Mexico</t>
-  </si>
-  <si>
-    <t>Dionisio Gutiérrez met in Guatemala with Felipe Calderón, former President of Mexico</t>
-  </si>
-  <si>
-    <t>Ministry of Labor signs agreement to offer entertainment for young people</t>
-  </si>
-  <si>
-    <t>Blowout Saudi Bond Deal Sends Message to Markets: Robert Burgess</t>
-  </si>
-  <si>
-    <t>The Ministry of Health proposes guidelines for the regulation of cannabis</t>
-  </si>
-  <si>
-    <t>Secy Salud (MX): 121. Provides Secretariat of Health guidelines for the regulation of cannabis</t>
-  </si>
-  <si>
-    <t>Dollar continues to decline, closes for sale at 19.34 pesos in banks</t>
-  </si>
-  <si>
-    <t>Turkey vows to galvanise banking sector and boost exports</t>
-  </si>
-  <si>
-    <t>ForMinistry (TR): Visit of Foreign Minister Mevlüt Çavusoglu to the Netherlands to attend the Seventh Meeting of the</t>
-  </si>
-  <si>
-    <t>Sen. Barrasso: Barrasso Questions Sec. Pompeo on Nord Stream 2 Pipeline, Turkey Buying S-400 Missiles and ISIS</t>
-  </si>
-  <si>
-    <t>Turkey’s Plan for Economy Is Seen as Tepid Response to Downturn</t>
-  </si>
-  <si>
-    <t>Roundup: Turkey unveils economic reform plan to tackle recession</t>
-  </si>
-  <si>
-    <t>BDR</t>
-  </si>
-  <si>
-    <t>The US keeps warning Turkey that buying Russia's S-400 missile system means it can't have the F-35, but Turkey keeps doubling</t>
-  </si>
-  <si>
-    <t>Genocidio armeno, Akp di Erdogan contro Parlamento italiano</t>
-  </si>
-  <si>
-    <t>Turkey vows to recapitalise state banks and tackle bad debts</t>
-  </si>
-  <si>
-    <t>GO6</t>
-  </si>
-  <si>
-    <t>Radio Pakistan: Russian S-400s delivery could be brought forward: Erdogan</t>
-  </si>
-  <si>
-    <t>Turkey’s Biggest Banking Handout in 18 Years Seen as Not Enough</t>
-  </si>
-  <si>
-    <t>Turkey's Erdogan says S-400 deal "national security decision"</t>
-  </si>
-  <si>
-    <t>Turkish Stats: As compared with the corresponding month of the preceding year, the overall export unit value index decreased by</t>
-  </si>
-  <si>
-    <t>++ Turchia: Erdogan, detenuti 30 mila membri rete Gulen ++</t>
-  </si>
-  <si>
-    <t>Erdogan: Over 30,000 jailed in Turkey over links to coup mastermind</t>
-  </si>
-  <si>
-    <t>ForMinistry (TR): Diplomacy Academy</t>
-  </si>
-  <si>
-    <t>Turkey to boost capital at state banks as part of reform plans</t>
-  </si>
-  <si>
-    <t>U.S. in New Missile Push as Turkey Hints at More S-400 Purchases</t>
-  </si>
-  <si>
-    <t>Erdogan wants Istanbul vote annulled over alleged irregularities</t>
-  </si>
-  <si>
-    <t>Erdogan says Russian S-400s delivery could be earlier</t>
-  </si>
-  <si>
-    <t>Turkey to focus on structural reforms: Treasury minister</t>
-  </si>
-  <si>
-    <t>Turkish economy to recover from recession in 2020: IMF</t>
-  </si>
-  <si>
-    <t>Turkey set to invest $11 billion in energy efficiency</t>
-  </si>
-  <si>
-    <t>Uber to scale down operations in Turkey</t>
-  </si>
-  <si>
-    <t>Turkey, Russia create 900 million euro investment fund</t>
-  </si>
-  <si>
-    <t>Facebook to levy tax on local ads in Turkey</t>
-  </si>
-  <si>
-    <t>Honda to end Turkey production after 2021</t>
-  </si>
-  <si>
-    <t>Number of mobile subscribers reaches 80 million in Turkey</t>
-  </si>
-  <si>
-    <t>At least 108 workers killed in Turkey in March: Report</t>
-  </si>
-  <si>
-    <t>37 percent of Turkish consumers prefer domestic products</t>
-  </si>
-  <si>
-    <t>Turkey’s participation banks’ profits jump 33 pct</t>
-  </si>
-  <si>
-    <t>Turkish government to unveil economic reforms on April 10</t>
-  </si>
-  <si>
-    <t>Turkey to look for alternatives if US doesn't deliver F-35s</t>
-  </si>
-  <si>
-    <t>Opposition urges top board to conclude election process</t>
-  </si>
-  <si>
-    <t>Erdogan: S-400 deal with Russia in delivery stage</t>
-  </si>
-  <si>
-    <t>Erdogan vows to ‘eliminate remnants of FETÖ’ in Turkey’s institutions</t>
-  </si>
-  <si>
-    <t>Turkish Treasury posts $2.7 bln cash deficit in March</t>
-  </si>
-  <si>
-    <t>Akkuyu nuclear plant tracks progress one year on</t>
-  </si>
-  <si>
-    <t>Turkey's business circle expects economic reforms</t>
-  </si>
-  <si>
-    <t>Turkey is key market for Asian investment bank AIIB: Official</t>
-  </si>
-  <si>
-    <t>EBRD says ready to increase Turkish bad loan help if asked</t>
-  </si>
-  <si>
-    <t>REU</t>
-  </si>
-  <si>
-    <t>EMERGING MARKETS-Stocks muted as growth fears weigh; focus on Turkey's lira</t>
-  </si>
-  <si>
-    <t>Brazil's Bolsonaro meets with Islamic countries' ambassadors</t>
-  </si>
-  <si>
-    <t>Cumple Bolsonaro cien días de gobierno con creciente insatisfacción</t>
-  </si>
-  <si>
-    <t>DoJ Nevada: Brazilian Man Sentenced To Eight Years In Prison For Credit And Debit Card Fraud Scheme</t>
-  </si>
-  <si>
-    <t>TRANSLATION: Globo: Bolsonaro affirms to Islamic ambassadors that Brazil is friend of all the countries, without exception</t>
-  </si>
-  <si>
-    <t>TRANSLATION: Estadão: Bolsonaro opens agenda for parliamentarians and will release amendments to help mayors</t>
-  </si>
-  <si>
-    <t>TRANSLATION: UOL Brasil: House extends incentives for builders of My Home, My Life</t>
-  </si>
-  <si>
-    <t>Brazil Govt Announces Closure of 6 Dams in Minas Gerais State</t>
-  </si>
-  <si>
-    <t>*BRAZIL GOVT ANNOUNCES CLOSURE OF 6 DAMS IN MINAS GERAIS STATE</t>
-  </si>
-  <si>
-    <t>Brazil Govt Leader in Senate Says Political Mood Has Improved</t>
-  </si>
-  <si>
-    <t>BNDES pagará cobertura de divisas con ventas de acciones</t>
-  </si>
-  <si>
-    <t>BUS</t>
-  </si>
-  <si>
-    <t>Amcor and Bemis Transaction Receives Unconditional Antitrust Clearance from Brazil</t>
-  </si>
-  <si>
-    <t>CNBC Wires: Brazil pension savings of 700 bln reais would not be enough -Treasury Secretary</t>
-  </si>
-  <si>
-    <t>Brazil’s Marinho Says Govt Expects No Less Than BRL1t W/ Reform</t>
-  </si>
-  <si>
-    <t>*BRAZIL GOVT SENATOR SAYS PENSION BILL TO PASS BY MID-SEPTEMBER</t>
-  </si>
-  <si>
-    <t>*BRAZIL GOVT LEADER IN SENATE SAYS POLITICAL MOOD HAS IMPROVED</t>
-  </si>
-  <si>
-    <t>President Macri received the chancellor of Brazil</t>
-  </si>
-  <si>
-    <t>Red-stained Brazil Flags At Burial of Man Shot By Military</t>
-  </si>
-  <si>
-    <t>Real Extends Gains as Guedes Hits New York</t>
-  </si>
-  <si>
-    <t>Brazil´s Cade Fines Gas Stations Incluiding BR, Ipiranga BRL157m</t>
-  </si>
-  <si>
-    <t>Brazil's Campos Neto says controlling inflation trumps boosting growth</t>
-  </si>
-  <si>
-    <t>Priority for Mexico to address causes of violence: chancellery</t>
-  </si>
-  <si>
-    <t>Mexican foreign minister calls U.S. border blockade "bad idea"</t>
-  </si>
-  <si>
-    <t>Ministry of Health holds meetings with resident doctors</t>
-  </si>
-  <si>
-    <t>Peasants march to the Ministry of the Interior</t>
-  </si>
-  <si>
-    <t>Secretary of Health holds meetings with resident doctors</t>
-  </si>
-  <si>
-    <t>INE approves modifications to the ballot and documentation of the Extraordinary Election of Puebla</t>
-  </si>
-  <si>
-    <t>The initiative of Sen. Antonio García Conejo (PRD) aims to empower the Bank of Mexico to analyze</t>
-  </si>
-  <si>
-    <t>Ministry of Health issues preventive travel measures for measles</t>
-  </si>
-  <si>
-    <t>INE approves changes to the ballot and documentation of the extraordinary election of Puebla</t>
-  </si>
-  <si>
-    <t>Court denies amparo to former governor of Michoacán against journalist</t>
-  </si>
-  <si>
-    <t>The Ministry of Health recommends taking preventive measures against measles.</t>
-  </si>
-  <si>
-    <t>The Secretariat of Energy participates in the «Seventh Meeting with the Earth</t>
-  </si>
-  <si>
-    <t>Budget, main problem to divide mayors, says mayor</t>
-  </si>
-  <si>
-    <t>FBI: Indictment: Two Mexican Citizens Sold Heroin, Meth, Guns at KCK Residence</t>
-  </si>
-  <si>
-    <t>INE has nothing to say about denunciation against Barbosa</t>
-  </si>
-  <si>
-    <t>Leader of bureaucrats demands López Obrador to keep promises to residents</t>
-  </si>
-  <si>
-    <t>Migrants send around three million dollars a day of remittances to Zacatecas</t>
-  </si>
-  <si>
-    <t>Important that prudent public finance goals are met: Banxico</t>
-  </si>
-  <si>
-    <t>Banxico warns commercial risks in the absence of ratification of T-MEC</t>
-  </si>
-  <si>
-    <t>Mexico’s 2019-20 Soybean Imports Seen Rising, USDA FAS Says</t>
-  </si>
-  <si>
-    <t>NGI</t>
-  </si>
-  <si>
-    <t>Dos Bocas Refinery Almost Certain To ‘Destroy Value’ For Pemex, Think Tank Says</t>
-  </si>
-  <si>
-    <t>MXD</t>
-  </si>
-  <si>
-    <t>Cost of violence rose 10% last year to 5 trillion pesos: Mexico Peace Index</t>
-  </si>
-  <si>
-    <t>Turkey, we will continue to support terrorism</t>
-  </si>
-  <si>
-    <t>Readout of Meeting with Turkish Foreign Minister</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D380"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1646,16 +1217,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1778,7 +1349,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>401</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1792,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1803,10 +1374,10 @@
         <v>43558</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1817,10 +1388,10 @@
         <v>43558</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1831,10 +1402,10 @@
         <v>43558</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1845,10 +1416,10 @@
         <v>43558</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1859,10 +1430,10 @@
         <v>43558</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1873,10 +1444,10 @@
         <v>43558</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1887,10 +1458,10 @@
         <v>43558</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1901,10 +1472,10 @@
         <v>43558</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1915,10 +1486,10 @@
         <v>43558</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1929,27 +1500,27 @@
         <v>43558</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>43559</v>
+        <v>43558</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1960,7 +1531,7 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1974,7 +1545,7 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1982,16 +1553,16 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>43558</v>
+        <v>43559</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1999,13 +1570,13 @@
         <v>43558</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -2013,10 +1584,10 @@
         <v>43558</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2027,10 +1598,10 @@
         <v>43558</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2041,13 +1612,13 @@
         <v>43558</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -2055,13 +1626,13 @@
         <v>43558</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -2072,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2083,10 +1654,10 @@
         <v>43558</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2097,10 +1668,10 @@
         <v>43558</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2111,13 +1682,13 @@
         <v>43558</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -2125,10 +1696,10 @@
         <v>43558</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2139,10 +1710,10 @@
         <v>43558</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2153,13 +1724,13 @@
         <v>43558</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>240</v>
+        <v>52</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -2167,10 +1738,10 @@
         <v>43558</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2181,13 +1752,13 @@
         <v>43558</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -2198,10 +1769,10 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -2209,10 +1780,10 @@
         <v>43558</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2220,16 +1791,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>43559</v>
+        <v>43558</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -2237,13 +1808,13 @@
         <v>43559</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -2251,24 +1822,24 @@
         <v>43559</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>43558</v>
+        <v>43559</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2279,13 +1850,13 @@
         <v>43558</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -2293,10 +1864,10 @@
         <v>43558</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2310,7 +1881,7 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2321,10 +1892,10 @@
         <v>43558</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>243</v>
+        <v>65</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2335,24 +1906,24 @@
         <v>43558</v>
       </c>
       <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B51" t="s">
         <v>6</v>
       </c>
-      <c r="C50" t="s">
-        <v>244</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
-        <v>0.15972222222222224</v>
-      </c>
-      <c r="B51" t="s">
-        <v>60</v>
-      </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2360,27 +1931,27 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
         <v>6.458333333333334E-2</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>4</v>
       </c>
-      <c r="C52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>43559</v>
-      </c>
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2391,10 +1962,10 @@
         <v>43559</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2405,10 +1976,10 @@
         <v>43559</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2419,13 +1990,13 @@
         <v>43559</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -2433,13 +2004,13 @@
         <v>43559</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -2447,10 +2018,10 @@
         <v>43559</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2461,10 +2032,10 @@
         <v>43559</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2475,10 +2046,10 @@
         <v>43559</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2489,10 +2060,10 @@
         <v>43559</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2503,10 +2074,10 @@
         <v>43559</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2517,10 +2088,10 @@
         <v>43559</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2531,10 +2102,10 @@
         <v>43559</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2545,10 +2116,10 @@
         <v>43559</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2559,10 +2130,10 @@
         <v>43559</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2573,10 +2144,10 @@
         <v>43559</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>245</v>
+        <v>88</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2587,10 +2158,10 @@
         <v>43559</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2601,10 +2172,10 @@
         <v>43559</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2615,10 +2186,10 @@
         <v>43559</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2626,16 +2197,16 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>43560</v>
+        <v>43559</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -2643,13 +2214,13 @@
         <v>43560</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -2657,13 +2228,13 @@
         <v>43560</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -2671,10 +2242,10 @@
         <v>43560</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2685,13 +2256,13 @@
         <v>43560</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2699,13 +2270,13 @@
         <v>43560</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -2713,10 +2284,10 @@
         <v>43560</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2727,13 +2298,13 @@
         <v>43560</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -2741,10 +2312,10 @@
         <v>43560</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2755,10 +2326,10 @@
         <v>43560</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2769,10 +2340,10 @@
         <v>43560</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2783,10 +2354,10 @@
         <v>43560</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2797,10 +2368,10 @@
         <v>43560</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2811,10 +2382,10 @@
         <v>43560</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2825,10 +2396,10 @@
         <v>43560</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2839,10 +2410,10 @@
         <v>43560</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2853,10 +2424,10 @@
         <v>43560</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2867,10 +2438,10 @@
         <v>43560</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2881,10 +2452,10 @@
         <v>43560</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2895,13 +2466,13 @@
         <v>43560</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -2909,10 +2480,10 @@
         <v>43560</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2923,10 +2494,10 @@
         <v>43560</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2937,13 +2508,13 @@
         <v>43560</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -2951,10 +2522,10 @@
         <v>43560</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2965,10 +2536,10 @@
         <v>43560</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2979,10 +2550,10 @@
         <v>43560</v>
       </c>
       <c r="B96" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2993,13 +2564,13 @@
         <v>43560</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -3007,10 +2578,10 @@
         <v>43560</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3021,10 +2592,10 @@
         <v>43560</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3035,108 +2606,108 @@
         <v>43560</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>246</v>
+      <c r="A101" s="1">
+        <v>43560</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="C101" t="s">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>246</v>
+      <c r="A102" s="1">
+        <v>43560</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C102" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
-        <v>246</v>
+      <c r="A103" s="1">
+        <v>43560</v>
       </c>
       <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
+        <v>0.11527777777777777</v>
+      </c>
+      <c r="B104" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" t="s">
+        <v>123</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="2">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C105" t="s">
+        <v>124</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="B106" t="s">
         <v>2</v>
       </c>
-      <c r="C103" t="s">
-        <v>111</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" t="s">
-        <v>112</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>43559</v>
-      </c>
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" t="s">
-        <v>113</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>43559</v>
-      </c>
-      <c r="B106" t="s">
-        <v>10</v>
-      </c>
       <c r="C106" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>43559</v>
+      <c r="A107" s="2">
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3150,10 +2721,10 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -3161,10 +2732,10 @@
         <v>43559</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3178,7 +2749,7 @@
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3189,13 +2760,13 @@
         <v>43559</v>
       </c>
       <c r="B111" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -3203,10 +2774,10 @@
         <v>43559</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C112" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3220,7 +2791,7 @@
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3231,13 +2802,13 @@
         <v>43559</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -3245,13 +2816,13 @@
         <v>43559</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -3259,13 +2830,13 @@
         <v>43559</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -3273,13 +2844,13 @@
         <v>43559</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="C117" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -3287,13 +2858,13 @@
         <v>43559</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C118" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -3301,10 +2872,10 @@
         <v>43559</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C119" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -3318,147 +2889,147 @@
         <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>246</v>
+      <c r="A121" s="1">
+        <v>43559</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="C121" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
-        <v>246</v>
+      <c r="A122" s="1">
+        <v>43559</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>246</v>
+      <c r="A123" s="1">
+        <v>43559</v>
       </c>
       <c r="B123" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
-        <v>246</v>
+      <c r="A124" s="2">
+        <v>0.18888888888888888</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
-        <v>246</v>
+      <c r="A125" s="2">
+        <v>0.17569444444444446</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
-        <v>246</v>
+      <c r="A126" s="2">
+        <v>0.16805555555555554</v>
       </c>
       <c r="B126" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="2" t="s">
-        <v>246</v>
+      <c r="A127" s="2">
+        <v>8.7500000000000008E-2</v>
       </c>
       <c r="B127" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
-        <v>43559</v>
+      <c r="A128" s="2">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="C128" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
-        <v>43559</v>
+      <c r="A129" s="2">
+        <v>2.9166666666666664E-2</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C129" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
-        <v>43559</v>
+      <c r="A130" s="2">
+        <v>1.4583333333333332E-2</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C130" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3469,10 +3040,10 @@
         <v>43559</v>
       </c>
       <c r="B131" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3483,10 +3054,10 @@
         <v>43559</v>
       </c>
       <c r="B132" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -3494,27 +3065,27 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>43563</v>
+        <v>43559</v>
       </c>
       <c r="B133" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>43563</v>
+        <v>43559</v>
       </c>
       <c r="B134" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C134" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -3522,41 +3093,41 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>43562</v>
+        <v>43559</v>
       </c>
       <c r="B135" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C135" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>43562</v>
+        <v>43563</v>
       </c>
       <c r="B136" t="s">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="C136" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>43562</v>
+        <v>43563</v>
       </c>
       <c r="B137" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -3567,13 +3138,13 @@
         <v>43562</v>
       </c>
       <c r="B138" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C138" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -3581,10 +3152,10 @@
         <v>43562</v>
       </c>
       <c r="B139" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -3595,10 +3166,10 @@
         <v>43562</v>
       </c>
       <c r="B140" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C140" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -3609,10 +3180,10 @@
         <v>43562</v>
       </c>
       <c r="B141" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -3623,10 +3194,10 @@
         <v>43562</v>
       </c>
       <c r="B142" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C142" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -3637,10 +3208,10 @@
         <v>43562</v>
       </c>
       <c r="B143" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -3651,10 +3222,10 @@
         <v>43562</v>
       </c>
       <c r="B144" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C144" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -3665,10 +3236,10 @@
         <v>43562</v>
       </c>
       <c r="B145" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C145" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -3679,10 +3250,10 @@
         <v>43562</v>
       </c>
       <c r="B146" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C146" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -3693,10 +3264,10 @@
         <v>43562</v>
       </c>
       <c r="B147" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="C147" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -3707,10 +3278,10 @@
         <v>43562</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C148" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -3721,13 +3292,13 @@
         <v>43562</v>
       </c>
       <c r="B149" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C149" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -3735,10 +3306,10 @@
         <v>43562</v>
       </c>
       <c r="B150" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -3752,7 +3323,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -3760,13 +3331,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>43561</v>
+        <v>43562</v>
       </c>
       <c r="B152" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C152" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -3774,27 +3345,27 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>43561</v>
+        <v>43562</v>
       </c>
       <c r="B153" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C153" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>43561</v>
+        <v>43562</v>
       </c>
       <c r="B154" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -3805,13 +3376,13 @@
         <v>43561</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="C155" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -3819,13 +3390,13 @@
         <v>43561</v>
       </c>
       <c r="B156" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -3833,10 +3404,10 @@
         <v>43561</v>
       </c>
       <c r="B157" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C157" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -3847,13 +3418,13 @@
         <v>43561</v>
       </c>
       <c r="B158" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -3861,10 +3432,10 @@
         <v>43561</v>
       </c>
       <c r="B159" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C159" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -3872,13 +3443,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>43560</v>
+        <v>43561</v>
       </c>
       <c r="B160" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="C160" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -3886,27 +3457,27 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>43560</v>
+        <v>43561</v>
       </c>
       <c r="B161" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>43560</v>
+        <v>43561</v>
       </c>
       <c r="B162" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -3917,13 +3488,13 @@
         <v>43560</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="C163" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -3931,10 +3502,10 @@
         <v>43560</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C164" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -3945,10 +3516,10 @@
         <v>43560</v>
       </c>
       <c r="B165" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C165" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -3959,13 +3530,13 @@
         <v>43560</v>
       </c>
       <c r="B166" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -3973,10 +3544,10 @@
         <v>43560</v>
       </c>
       <c r="B167" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -3987,13 +3558,13 @@
         <v>43560</v>
       </c>
       <c r="B168" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C168" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -4001,10 +3572,10 @@
         <v>43560</v>
       </c>
       <c r="B169" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C169" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -4015,13 +3586,13 @@
         <v>43560</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C170" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -4029,13 +3600,13 @@
         <v>43560</v>
       </c>
       <c r="B171" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C171" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -4043,10 +3614,10 @@
         <v>43560</v>
       </c>
       <c r="B172" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -4057,13 +3628,13 @@
         <v>43560</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -4071,13 +3642,13 @@
         <v>43560</v>
       </c>
       <c r="B174" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C174" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -4085,10 +3656,10 @@
         <v>43560</v>
       </c>
       <c r="B175" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C175" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -4099,10 +3670,10 @@
         <v>43560</v>
       </c>
       <c r="B176" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -4113,24 +3684,24 @@
         <v>43560</v>
       </c>
       <c r="B177" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C177" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>43563</v>
+        <v>43560</v>
       </c>
       <c r="B178" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="C178" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -4138,13 +3709,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>43563</v>
+        <v>43560</v>
       </c>
       <c r="B179" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="C179" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -4152,27 +3723,27 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>43563</v>
+        <v>43560</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C180" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>43562</v>
+        <v>43563</v>
       </c>
       <c r="B181" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="C181" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -4180,13 +3751,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>43562</v>
+        <v>43563</v>
       </c>
       <c r="B182" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="C182" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -4194,16 +3765,16 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>43562</v>
+        <v>43563</v>
       </c>
       <c r="B183" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
@@ -4211,10 +3782,10 @@
         <v>43562</v>
       </c>
       <c r="B184" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="C184" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -4225,10 +3796,10 @@
         <v>43562</v>
       </c>
       <c r="B185" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="C185" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -4239,10 +3810,10 @@
         <v>43562</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C186" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -4253,13 +3824,13 @@
         <v>43562</v>
       </c>
       <c r="B187" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="C187" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -4267,10 +3838,10 @@
         <v>43562</v>
       </c>
       <c r="B188" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C188" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -4281,13 +3852,13 @@
         <v>43562</v>
       </c>
       <c r="B189" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -4295,13 +3866,13 @@
         <v>43562</v>
       </c>
       <c r="B190" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C190" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -4309,10 +3880,10 @@
         <v>43562</v>
       </c>
       <c r="B191" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="C191" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -4323,13 +3894,13 @@
         <v>43562</v>
       </c>
       <c r="B192" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C192" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -4337,24 +3908,24 @@
         <v>43562</v>
       </c>
       <c r="B193" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="C193" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
-        <v>43561</v>
+        <v>43562</v>
       </c>
       <c r="B194" t="s">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="C194" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -4362,13 +3933,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
-        <v>43561</v>
+        <v>43562</v>
       </c>
       <c r="B195" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="C195" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -4376,27 +3947,27 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
-        <v>43561</v>
+        <v>43562</v>
       </c>
       <c r="B196" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C196" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
-        <v>43560</v>
+        <v>43561</v>
       </c>
       <c r="B197" t="s">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="C197" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -4404,13 +3975,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
-        <v>43560</v>
+        <v>43561</v>
       </c>
       <c r="B198" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="C198" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -4418,13 +3989,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
-        <v>43560</v>
+        <v>43561</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C199" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -4435,10 +4006,10 @@
         <v>43560</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -4449,13 +4020,13 @@
         <v>43560</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="C201" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -4466,7 +4037,7 @@
         <v>10</v>
       </c>
       <c r="C202" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -4477,13 +4048,13 @@
         <v>43560</v>
       </c>
       <c r="B203" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="C203" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -4494,10 +4065,10 @@
         <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -4508,7 +4079,7 @@
         <v>10</v>
       </c>
       <c r="C205" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -4519,13 +4090,13 @@
         <v>43560</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="C206" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -4533,10 +4104,10 @@
         <v>43560</v>
       </c>
       <c r="B207" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -4547,10 +4118,10 @@
         <v>43560</v>
       </c>
       <c r="B208" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -4564,7 +4135,7 @@
         <v>10</v>
       </c>
       <c r="C209" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -4575,10 +4146,10 @@
         <v>43560</v>
       </c>
       <c r="B210" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C210" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -4589,10 +4160,10 @@
         <v>43560</v>
       </c>
       <c r="B211" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C211" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -4606,7 +4177,7 @@
         <v>10</v>
       </c>
       <c r="C212" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -4617,13 +4188,13 @@
         <v>43560</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -4634,7 +4205,7 @@
         <v>10</v>
       </c>
       <c r="C214" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -4642,13 +4213,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
-        <v>43562</v>
+        <v>43560</v>
       </c>
       <c r="B215" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C215" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -4656,27 +4227,27 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
-        <v>43562</v>
+        <v>43560</v>
       </c>
       <c r="B216" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C216" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
-        <v>43562</v>
+        <v>43560</v>
       </c>
       <c r="B217" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C217" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -4687,10 +4258,10 @@
         <v>43562</v>
       </c>
       <c r="B218" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C218" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -4701,10 +4272,10 @@
         <v>43562</v>
       </c>
       <c r="B219" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -4712,13 +4283,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
-        <v>43561</v>
+        <v>43562</v>
       </c>
       <c r="B220" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -4726,13 +4297,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
-        <v>43561</v>
+        <v>43562</v>
       </c>
       <c r="B221" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C221" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -4740,13 +4311,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
-        <v>43561</v>
+        <v>43562</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C222" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -4757,10 +4328,10 @@
         <v>43561</v>
       </c>
       <c r="B223" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C223" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -4771,10 +4342,10 @@
         <v>43561</v>
       </c>
       <c r="B224" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C224" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -4785,10 +4356,10 @@
         <v>43561</v>
       </c>
       <c r="B225" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C225" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -4799,10 +4370,10 @@
         <v>43561</v>
       </c>
       <c r="B226" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C226" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -4810,13 +4381,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
-        <v>43560</v>
+        <v>43561</v>
       </c>
       <c r="B227" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C227" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -4824,13 +4395,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
-        <v>43560</v>
+        <v>43561</v>
       </c>
       <c r="B228" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="C228" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -4838,13 +4409,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
-        <v>43560</v>
+        <v>43561</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C229" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -4855,10 +4426,10 @@
         <v>43560</v>
       </c>
       <c r="B230" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C230" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -4869,13 +4440,13 @@
         <v>43560</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="C231" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -4883,10 +4454,10 @@
         <v>43560</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C232" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -4897,10 +4468,10 @@
         <v>43560</v>
       </c>
       <c r="B233" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C233" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -4911,13 +4482,13 @@
         <v>43560</v>
       </c>
       <c r="B234" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C234" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -4925,2047 +4496,58 @@
         <v>43560</v>
       </c>
       <c r="B235" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
-        <v>43564</v>
+        <v>43560</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C236" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
-        <v>43564</v>
+        <v>43560</v>
       </c>
       <c r="B237" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C237" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
-        <v>43564</v>
+        <v>43560</v>
       </c>
       <c r="B238" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C238" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A239" s="1">
-        <v>43564</v>
-      </c>
-      <c r="B239" t="s">
-        <v>260</v>
-      </c>
-      <c r="C239" t="s">
-        <v>261</v>
-      </c>
-      <c r="D239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A240" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B240" t="s">
-        <v>52</v>
-      </c>
-      <c r="C240" t="s">
-        <v>262</v>
-      </c>
-      <c r="D240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B241" t="s">
-        <v>52</v>
-      </c>
-      <c r="C241" t="s">
-        <v>263</v>
-      </c>
-      <c r="D241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B242" t="s">
-        <v>264</v>
-      </c>
-      <c r="C242" t="s">
-        <v>265</v>
-      </c>
-      <c r="D242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A243" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B243" t="s">
-        <v>24</v>
-      </c>
-      <c r="C243" t="s">
-        <v>266</v>
-      </c>
-      <c r="D243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B244" t="s">
-        <v>21</v>
-      </c>
-      <c r="C244" t="s">
-        <v>267</v>
-      </c>
-      <c r="D244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B245" t="s">
-        <v>264</v>
-      </c>
-      <c r="C245" t="s">
-        <v>268</v>
-      </c>
-      <c r="D245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B246" t="s">
-        <v>264</v>
-      </c>
-      <c r="C246" t="s">
-        <v>269</v>
-      </c>
-      <c r="D246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B247" t="s">
-        <v>2</v>
-      </c>
-      <c r="C247" t="s">
-        <v>270</v>
-      </c>
-      <c r="D247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A248" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B248" t="s">
-        <v>34</v>
-      </c>
-      <c r="C248" t="s">
-        <v>271</v>
-      </c>
-      <c r="D248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A249" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B249" t="s">
-        <v>19</v>
-      </c>
-      <c r="C249" t="s">
-        <v>272</v>
-      </c>
-      <c r="D249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B250" t="s">
-        <v>19</v>
-      </c>
-      <c r="C250" t="s">
-        <v>273</v>
-      </c>
-      <c r="D250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" s="1">
-        <v>43564</v>
-      </c>
-      <c r="B251" t="s">
-        <v>109</v>
-      </c>
-      <c r="C251" t="s">
-        <v>274</v>
-      </c>
-      <c r="D251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A252" s="1">
-        <v>43564</v>
-      </c>
-      <c r="B252" t="s">
-        <v>10</v>
-      </c>
-      <c r="C252" t="s">
-        <v>275</v>
-      </c>
-      <c r="D252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" s="1">
-        <v>43564</v>
-      </c>
-      <c r="B253" t="s">
-        <v>10</v>
-      </c>
-      <c r="C253" t="s">
-        <v>276</v>
-      </c>
-      <c r="D253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B254" t="s">
-        <v>124</v>
-      </c>
-      <c r="C254" t="s">
-        <v>277</v>
-      </c>
-      <c r="D254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A255" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B255" t="s">
-        <v>34</v>
-      </c>
-      <c r="C255" t="s">
-        <v>278</v>
-      </c>
-      <c r="D255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B256" t="s">
-        <v>10</v>
-      </c>
-      <c r="C256" t="s">
-        <v>279</v>
-      </c>
-      <c r="D256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B257" t="s">
-        <v>10</v>
-      </c>
-      <c r="C257" t="s">
-        <v>280</v>
-      </c>
-      <c r="D257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A258" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B258" t="s">
-        <v>10</v>
-      </c>
-      <c r="C258" t="s">
-        <v>281</v>
-      </c>
-      <c r="D258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A259" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B259" t="s">
-        <v>10</v>
-      </c>
-      <c r="C259" t="s">
-        <v>282</v>
-      </c>
-      <c r="D259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A260" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B260" t="s">
-        <v>10</v>
-      </c>
-      <c r="C260" t="s">
-        <v>283</v>
-      </c>
-      <c r="D260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A261" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B261" t="s">
-        <v>10</v>
-      </c>
-      <c r="C261" t="s">
-        <v>284</v>
-      </c>
-      <c r="D261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B262" t="s">
-        <v>10</v>
-      </c>
-      <c r="C262" t="s">
-        <v>285</v>
-      </c>
-      <c r="D262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B263" t="s">
-        <v>10</v>
-      </c>
-      <c r="C263" t="s">
-        <v>286</v>
-      </c>
-      <c r="D263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A264" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B264" t="s">
-        <v>34</v>
-      </c>
-      <c r="C264" t="s">
-        <v>287</v>
-      </c>
-      <c r="D264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B265" t="s">
-        <v>10</v>
-      </c>
-      <c r="C265" t="s">
-        <v>288</v>
-      </c>
-      <c r="D265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A266" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B266" t="s">
-        <v>10</v>
-      </c>
-      <c r="C266" t="s">
-        <v>289</v>
-      </c>
-      <c r="D266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A267" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B267" t="s">
-        <v>124</v>
-      </c>
-      <c r="C267" t="s">
-        <v>290</v>
-      </c>
-      <c r="D267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B268" t="s">
-        <v>12</v>
-      </c>
-      <c r="C268" t="s">
-        <v>291</v>
-      </c>
-      <c r="D268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B269" t="s">
-        <v>10</v>
-      </c>
-      <c r="C269" t="s">
-        <v>292</v>
-      </c>
-      <c r="D269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A270" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B270" t="s">
-        <v>10</v>
-      </c>
-      <c r="C270" t="s">
-        <v>293</v>
-      </c>
-      <c r="D270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" s="1">
-        <v>43564</v>
-      </c>
-      <c r="B271" t="s">
-        <v>6</v>
-      </c>
-      <c r="C271" t="s">
-        <v>294</v>
-      </c>
-      <c r="D271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" s="1">
-        <v>43564</v>
-      </c>
-      <c r="B272" t="s">
-        <v>52</v>
-      </c>
-      <c r="C272" t="s">
-        <v>295</v>
-      </c>
-      <c r="D272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A273" s="1">
-        <v>43564</v>
-      </c>
-      <c r="B273" t="s">
-        <v>48</v>
-      </c>
-      <c r="C273" t="s">
-        <v>296</v>
-      </c>
-      <c r="D273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274" s="1">
-        <v>43564</v>
-      </c>
-      <c r="B274" t="s">
-        <v>10</v>
-      </c>
-      <c r="C274" t="s">
-        <v>297</v>
-      </c>
-      <c r="D274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B275" t="s">
-        <v>6</v>
-      </c>
-      <c r="C275" t="s">
-        <v>298</v>
-      </c>
-      <c r="D275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A276" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B276" t="s">
-        <v>6</v>
-      </c>
-      <c r="C276" t="s">
-        <v>299</v>
-      </c>
-      <c r="D276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A277" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B277" t="s">
-        <v>48</v>
-      </c>
-      <c r="C277" t="s">
-        <v>300</v>
-      </c>
-      <c r="D277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B278" t="s">
-        <v>6</v>
-      </c>
-      <c r="C278" t="s">
-        <v>301</v>
-      </c>
-      <c r="D278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A279" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B279" t="s">
-        <v>48</v>
-      </c>
-      <c r="C279" t="s">
-        <v>302</v>
-      </c>
-      <c r="D279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A280" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B280" t="s">
-        <v>303</v>
-      </c>
-      <c r="C280" t="s">
-        <v>304</v>
-      </c>
-      <c r="D280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B281" t="s">
-        <v>303</v>
-      </c>
-      <c r="C281" t="s">
-        <v>305</v>
-      </c>
-      <c r="D281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A282" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B282" t="s">
-        <v>6</v>
-      </c>
-      <c r="C282" t="s">
-        <v>306</v>
-      </c>
-      <c r="D282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A283" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B283" t="s">
-        <v>64</v>
-      </c>
-      <c r="C283" t="s">
-        <v>307</v>
-      </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B284" t="s">
-        <v>6</v>
-      </c>
-      <c r="C284" t="s">
-        <v>308</v>
-      </c>
-      <c r="D284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A285" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B285" t="s">
-        <v>48</v>
-      </c>
-      <c r="C285" t="s">
-        <v>309</v>
-      </c>
-      <c r="D285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A286" s="1">
-        <v>43563</v>
-      </c>
-      <c r="B286" t="s">
-        <v>6</v>
-      </c>
-      <c r="C286" t="s">
-        <v>310</v>
-      </c>
-      <c r="D286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>246</v>
-      </c>
-      <c r="B287" t="s">
-        <v>4</v>
-      </c>
-      <c r="C287" t="s">
-        <v>311</v>
-      </c>
-      <c r="D287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A288" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B288" t="s">
-        <v>8</v>
-      </c>
-      <c r="C288" t="s">
-        <v>312</v>
-      </c>
-      <c r="D288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A289" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B289" t="s">
-        <v>12</v>
-      </c>
-      <c r="C289" t="s">
-        <v>313</v>
-      </c>
-      <c r="D289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B290" t="s">
-        <v>16</v>
-      </c>
-      <c r="C290" t="s">
-        <v>314</v>
-      </c>
-      <c r="D290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A291" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B291" t="s">
-        <v>52</v>
-      </c>
-      <c r="C291" t="s">
-        <v>315</v>
-      </c>
-      <c r="D291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B292" t="s">
-        <v>316</v>
-      </c>
-      <c r="C292" t="s">
-        <v>317</v>
-      </c>
-      <c r="D292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B293" t="s">
-        <v>19</v>
-      </c>
-      <c r="C293" t="s">
-        <v>318</v>
-      </c>
-      <c r="D293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A294" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B294" t="s">
-        <v>4</v>
-      </c>
-      <c r="C294" t="s">
-        <v>319</v>
-      </c>
-      <c r="D294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B295" t="s">
-        <v>320</v>
-      </c>
-      <c r="C295" t="s">
-        <v>321</v>
-      </c>
-      <c r="D295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B296" t="s">
-        <v>34</v>
-      </c>
-      <c r="C296" t="s">
-        <v>322</v>
-      </c>
-      <c r="D296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A297" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B297" t="s">
-        <v>52</v>
-      </c>
-      <c r="C297" t="s">
-        <v>323</v>
-      </c>
-      <c r="D297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B298" t="s">
-        <v>8</v>
-      </c>
-      <c r="C298" t="s">
-        <v>324</v>
-      </c>
-      <c r="D298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B299" t="s">
-        <v>19</v>
-      </c>
-      <c r="C299" t="s">
-        <v>325</v>
-      </c>
-      <c r="D299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A300" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B300" t="s">
-        <v>2</v>
-      </c>
-      <c r="C300" t="s">
-        <v>326</v>
-      </c>
-      <c r="D300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A301" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B301" t="s">
-        <v>79</v>
-      </c>
-      <c r="C301" t="s">
-        <v>80</v>
-      </c>
-      <c r="D301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A302" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B302" t="s">
-        <v>8</v>
-      </c>
-      <c r="C302" t="s">
-        <v>327</v>
-      </c>
-      <c r="D302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A303" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B303" t="s">
-        <v>2</v>
-      </c>
-      <c r="C303" t="s">
-        <v>328</v>
-      </c>
-      <c r="D303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A304" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B304" t="s">
-        <v>34</v>
-      </c>
-      <c r="C304" t="s">
-        <v>329</v>
-      </c>
-      <c r="D304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A305" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B305" t="s">
-        <v>27</v>
-      </c>
-      <c r="C305" t="s">
-        <v>330</v>
-      </c>
-      <c r="D305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A306" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B306" t="s">
-        <v>27</v>
-      </c>
-      <c r="C306" t="s">
-        <v>331</v>
-      </c>
-      <c r="D306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A307" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B307" t="s">
-        <v>29</v>
-      </c>
-      <c r="C307" t="s">
-        <v>332</v>
-      </c>
-      <c r="D307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A308" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B308" t="s">
-        <v>29</v>
-      </c>
-      <c r="C308" t="s">
-        <v>333</v>
-      </c>
-      <c r="D308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A309" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B309" t="s">
-        <v>29</v>
-      </c>
-      <c r="C309" t="s">
-        <v>332</v>
-      </c>
-      <c r="D309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A310" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B310" t="s">
-        <v>29</v>
-      </c>
-      <c r="C310" t="s">
-        <v>333</v>
-      </c>
-      <c r="D310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A311" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B311" t="s">
-        <v>29</v>
-      </c>
-      <c r="C311" t="s">
-        <v>334</v>
-      </c>
-      <c r="D311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A312" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B312" t="s">
-        <v>29</v>
-      </c>
-      <c r="C312" t="s">
-        <v>335</v>
-      </c>
-      <c r="D312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A313" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B313" t="s">
-        <v>29</v>
-      </c>
-      <c r="C313" t="s">
-        <v>336</v>
-      </c>
-      <c r="D313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A314" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B314" t="s">
-        <v>29</v>
-      </c>
-      <c r="C314" t="s">
-        <v>337</v>
-      </c>
-      <c r="D314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A315" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B315" t="s">
-        <v>29</v>
-      </c>
-      <c r="C315" t="s">
-        <v>338</v>
-      </c>
-      <c r="D315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A316" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B316" t="s">
-        <v>29</v>
-      </c>
-      <c r="C316" t="s">
-        <v>339</v>
-      </c>
-      <c r="D316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A317" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B317" t="s">
-        <v>29</v>
-      </c>
-      <c r="C317" t="s">
-        <v>340</v>
-      </c>
-      <c r="D317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A318" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B318" t="s">
-        <v>29</v>
-      </c>
-      <c r="C318" t="s">
-        <v>341</v>
-      </c>
-      <c r="D318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A319" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B319" t="s">
-        <v>29</v>
-      </c>
-      <c r="C319" t="s">
-        <v>342</v>
-      </c>
-      <c r="D319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A320" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B320" t="s">
-        <v>29</v>
-      </c>
-      <c r="C320" t="s">
-        <v>343</v>
-      </c>
-      <c r="D320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A321" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B321" t="s">
-        <v>29</v>
-      </c>
-      <c r="C321" t="s">
-        <v>344</v>
-      </c>
-      <c r="D321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A322" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B322" t="s">
-        <v>29</v>
-      </c>
-      <c r="C322" t="s">
-        <v>345</v>
-      </c>
-      <c r="D322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A323" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B323" t="s">
-        <v>29</v>
-      </c>
-      <c r="C323" t="s">
-        <v>346</v>
-      </c>
-      <c r="D323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A324" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B324" t="s">
-        <v>29</v>
-      </c>
-      <c r="C324" t="s">
-        <v>347</v>
-      </c>
-      <c r="D324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A325" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B325" t="s">
-        <v>29</v>
-      </c>
-      <c r="C325" t="s">
-        <v>333</v>
-      </c>
-      <c r="D325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A326" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B326" t="s">
-        <v>29</v>
-      </c>
-      <c r="C326" t="s">
-        <v>348</v>
-      </c>
-      <c r="D326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A327" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B327" t="s">
-        <v>29</v>
-      </c>
-      <c r="C327" t="s">
-        <v>349</v>
-      </c>
-      <c r="D327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A328" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B328" t="s">
-        <v>29</v>
-      </c>
-      <c r="C328" t="s">
-        <v>350</v>
-      </c>
-      <c r="D328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A329" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B329" t="s">
-        <v>29</v>
-      </c>
-      <c r="C329" t="s">
-        <v>351</v>
-      </c>
-      <c r="D329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A330" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B330" t="s">
-        <v>29</v>
-      </c>
-      <c r="C330" t="s">
-        <v>352</v>
-      </c>
-      <c r="D330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A331" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B331" t="s">
-        <v>29</v>
-      </c>
-      <c r="C331" t="s">
-        <v>82</v>
-      </c>
-      <c r="D331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A332" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B332" t="s">
-        <v>29</v>
-      </c>
-      <c r="C332" t="s">
-        <v>81</v>
-      </c>
-      <c r="D332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A333" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B333" t="s">
-        <v>29</v>
-      </c>
-      <c r="C333" t="s">
-        <v>83</v>
-      </c>
-      <c r="D333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A334" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B334" t="s">
-        <v>29</v>
-      </c>
-      <c r="C334" t="s">
-        <v>84</v>
-      </c>
-      <c r="D334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A335" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B335" t="s">
-        <v>29</v>
-      </c>
-      <c r="C335" t="s">
-        <v>85</v>
-      </c>
-      <c r="D335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A336" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B336" t="s">
-        <v>29</v>
-      </c>
-      <c r="C336" t="s">
-        <v>86</v>
-      </c>
-      <c r="D336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A337" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B337" t="s">
-        <v>29</v>
-      </c>
-      <c r="C337" t="s">
-        <v>87</v>
-      </c>
-      <c r="D337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A338" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B338" t="s">
-        <v>353</v>
-      </c>
-      <c r="C338" t="s">
-        <v>354</v>
-      </c>
-      <c r="D338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A339" t="s">
-        <v>246</v>
-      </c>
-      <c r="B339" t="s">
-        <v>52</v>
-      </c>
-      <c r="C339" t="s">
-        <v>355</v>
-      </c>
-      <c r="D339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A340" t="s">
-        <v>246</v>
-      </c>
-      <c r="B340" t="s">
-        <v>6</v>
-      </c>
-      <c r="C340" t="s">
-        <v>356</v>
-      </c>
-      <c r="D340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A341" t="s">
-        <v>246</v>
-      </c>
-      <c r="B341" t="s">
-        <v>12</v>
-      </c>
-      <c r="C341" t="s">
-        <v>357</v>
-      </c>
-      <c r="D341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A342" t="s">
-        <v>246</v>
-      </c>
-      <c r="B342" t="s">
-        <v>124</v>
-      </c>
-      <c r="C342" t="s">
-        <v>358</v>
-      </c>
-      <c r="D342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A343" t="s">
-        <v>246</v>
-      </c>
-      <c r="B343" t="s">
-        <v>124</v>
-      </c>
-      <c r="C343" t="s">
-        <v>359</v>
-      </c>
-      <c r="D343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A344" t="s">
-        <v>246</v>
-      </c>
-      <c r="B344" t="s">
-        <v>124</v>
-      </c>
-      <c r="C344" t="s">
-        <v>360</v>
-      </c>
-      <c r="D344">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A345" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B345" t="s">
-        <v>10</v>
-      </c>
-      <c r="C345" t="s">
-        <v>361</v>
-      </c>
-      <c r="D345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A346" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B346" t="s">
-        <v>10</v>
-      </c>
-      <c r="C346" t="s">
-        <v>362</v>
-      </c>
-      <c r="D346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A347" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B347" t="s">
-        <v>10</v>
-      </c>
-      <c r="C347" t="s">
-        <v>363</v>
-      </c>
-      <c r="D347">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A348" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B348" t="s">
-        <v>26</v>
-      </c>
-      <c r="C348" t="s">
-        <v>364</v>
-      </c>
-      <c r="D348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A349" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B349" t="s">
-        <v>365</v>
-      </c>
-      <c r="C349" t="s">
-        <v>366</v>
-      </c>
-      <c r="D349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A350" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B350" t="s">
-        <v>124</v>
-      </c>
-      <c r="C350" t="s">
-        <v>367</v>
-      </c>
-      <c r="D350">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A351" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B351" t="s">
-        <v>10</v>
-      </c>
-      <c r="C351" t="s">
-        <v>368</v>
-      </c>
-      <c r="D351">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A352" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B352" t="s">
-        <v>10</v>
-      </c>
-      <c r="C352" t="s">
-        <v>369</v>
-      </c>
-      <c r="D352">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A353" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B353" t="s">
-        <v>10</v>
-      </c>
-      <c r="C353" t="s">
-        <v>370</v>
-      </c>
-      <c r="D353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A354" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B354" t="s">
-        <v>48</v>
-      </c>
-      <c r="C354" t="s">
-        <v>371</v>
-      </c>
-      <c r="D354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A355" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B355" t="s">
-        <v>21</v>
-      </c>
-      <c r="C355" t="s">
-        <v>372</v>
-      </c>
-      <c r="D355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A356" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B356" t="s">
-        <v>10</v>
-      </c>
-      <c r="C356" t="s">
-        <v>373</v>
-      </c>
-      <c r="D356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A357" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B357" t="s">
-        <v>10</v>
-      </c>
-      <c r="C357" t="s">
-        <v>374</v>
-      </c>
-      <c r="D357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A358" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B358" t="s">
-        <v>353</v>
-      </c>
-      <c r="C358" t="s">
-        <v>375</v>
-      </c>
-      <c r="D358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A359" t="s">
-        <v>246</v>
-      </c>
-      <c r="B359" t="s">
-        <v>6</v>
-      </c>
-      <c r="C359" t="s">
-        <v>376</v>
-      </c>
-      <c r="D359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A360" t="s">
-        <v>246</v>
-      </c>
-      <c r="B360" t="s">
-        <v>52</v>
-      </c>
-      <c r="C360" t="s">
-        <v>377</v>
-      </c>
-      <c r="D360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A361" t="s">
-        <v>246</v>
-      </c>
-      <c r="B361" t="s">
-        <v>6</v>
-      </c>
-      <c r="C361" t="s">
-        <v>378</v>
-      </c>
-      <c r="D361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A362" t="s">
-        <v>246</v>
-      </c>
-      <c r="B362" t="s">
-        <v>6</v>
-      </c>
-      <c r="C362" t="s">
-        <v>379</v>
-      </c>
-      <c r="D362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A363" t="s">
-        <v>246</v>
-      </c>
-      <c r="B363" t="s">
-        <v>6</v>
-      </c>
-      <c r="C363" t="s">
-        <v>380</v>
-      </c>
-      <c r="D363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A364" t="s">
-        <v>246</v>
-      </c>
-      <c r="B364" t="s">
-        <v>48</v>
-      </c>
-      <c r="C364" t="s">
-        <v>381</v>
-      </c>
-      <c r="D364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A365" t="s">
-        <v>246</v>
-      </c>
-      <c r="B365" t="s">
-        <v>48</v>
-      </c>
-      <c r="C365" t="s">
-        <v>382</v>
-      </c>
-      <c r="D365">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A366" t="s">
-        <v>246</v>
-      </c>
-      <c r="B366" t="s">
-        <v>6</v>
-      </c>
-      <c r="C366" t="s">
-        <v>383</v>
-      </c>
-      <c r="D366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A367" t="s">
-        <v>246</v>
-      </c>
-      <c r="B367" t="s">
-        <v>6</v>
-      </c>
-      <c r="C367" t="s">
-        <v>384</v>
-      </c>
-      <c r="D367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A368" t="s">
-        <v>246</v>
-      </c>
-      <c r="B368" t="s">
-        <v>6</v>
-      </c>
-      <c r="C368" t="s">
-        <v>385</v>
-      </c>
-      <c r="D368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A369" t="s">
-        <v>246</v>
-      </c>
-      <c r="B369" t="s">
-        <v>48</v>
-      </c>
-      <c r="C369" t="s">
-        <v>386</v>
-      </c>
-      <c r="D369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A370" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B370" t="s">
-        <v>48</v>
-      </c>
-      <c r="C370" t="s">
-        <v>387</v>
-      </c>
-      <c r="D370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A371" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B371" t="s">
-        <v>6</v>
-      </c>
-      <c r="C371" t="s">
-        <v>388</v>
-      </c>
-      <c r="D371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A372" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B372" t="s">
-        <v>12</v>
-      </c>
-      <c r="C372" t="s">
-        <v>389</v>
-      </c>
-      <c r="D372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A373" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B373" t="s">
-        <v>6</v>
-      </c>
-      <c r="C373" t="s">
-        <v>390</v>
-      </c>
-      <c r="D373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A374" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B374" t="s">
-        <v>6</v>
-      </c>
-      <c r="C374" t="s">
-        <v>391</v>
-      </c>
-      <c r="D374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A375" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B375" t="s">
-        <v>6</v>
-      </c>
-      <c r="C375" t="s">
-        <v>392</v>
-      </c>
-      <c r="D375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A376" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B376" t="s">
-        <v>6</v>
-      </c>
-      <c r="C376" t="s">
-        <v>393</v>
-      </c>
-      <c r="D376">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A377" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B377" t="s">
-        <v>6</v>
-      </c>
-      <c r="C377" t="s">
-        <v>394</v>
-      </c>
-      <c r="D377">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A378" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B378" t="s">
-        <v>10</v>
-      </c>
-      <c r="C378" t="s">
-        <v>395</v>
-      </c>
-      <c r="D378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A379" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B379" t="s">
-        <v>396</v>
-      </c>
-      <c r="C379" t="s">
-        <v>397</v>
-      </c>
-      <c r="D379">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A380" s="1">
-        <v>43565</v>
-      </c>
-      <c r="B380" t="s">
-        <v>398</v>
-      </c>
-      <c r="C380" t="s">
-        <v>399</v>
-      </c>
-      <c r="D380">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>